--- a/SchedulingData/static5/pso/scheduling1_8.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_8.xlsx
@@ -481,173 +481,173 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>82.45999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>25.424</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>82.45999999999999</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>132.36</v>
+        <v>76.52</v>
       </c>
       <c r="E4" t="n">
-        <v>22.064</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79.22</v>
+        <v>59.36</v>
       </c>
       <c r="E5" t="n">
-        <v>27.228</v>
+        <v>26.724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>42.72</v>
       </c>
       <c r="E6" t="n">
-        <v>26.48</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>54.64</v>
+        <v>137.14</v>
       </c>
       <c r="E7" t="n">
-        <v>25.736</v>
+        <v>24.016</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>79.22</v>
+        <v>42.72</v>
       </c>
       <c r="D8" t="n">
-        <v>123.52</v>
+        <v>102.82</v>
       </c>
       <c r="E8" t="n">
-        <v>23.928</v>
+        <v>24.488</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36.48</v>
+        <v>76.52</v>
       </c>
       <c r="D9" t="n">
-        <v>101.78</v>
+        <v>141.44</v>
       </c>
       <c r="E9" t="n">
-        <v>22.632</v>
+        <v>21.656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>141.44</v>
       </c>
       <c r="D10" t="n">
-        <v>84.52</v>
+        <v>203.54</v>
       </c>
       <c r="E10" t="n">
-        <v>25.688</v>
+        <v>18.536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>84.52</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>160.12</v>
+        <v>73.8</v>
       </c>
       <c r="E11" t="n">
-        <v>22.208</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="12">
@@ -656,150 +656,150 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>160.12</v>
+        <v>137.14</v>
       </c>
       <c r="D12" t="n">
-        <v>220.24</v>
+        <v>199.44</v>
       </c>
       <c r="E12" t="n">
-        <v>18.336</v>
+        <v>20.896</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52</v>
+        <v>203.54</v>
       </c>
       <c r="D13" t="n">
-        <v>105.96</v>
+        <v>277.36</v>
       </c>
       <c r="E13" t="n">
-        <v>23.204</v>
+        <v>14.784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>123.52</v>
+        <v>102.82</v>
       </c>
       <c r="D14" t="n">
-        <v>170.82</v>
+        <v>172.24</v>
       </c>
       <c r="E14" t="n">
-        <v>20.328</v>
+        <v>20.176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>101.78</v>
+        <v>73.8</v>
       </c>
       <c r="D15" t="n">
-        <v>166.48</v>
+        <v>131.1</v>
       </c>
       <c r="E15" t="n">
-        <v>17.292</v>
+        <v>22.66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>166.48</v>
+        <v>172.24</v>
       </c>
       <c r="D16" t="n">
-        <v>221.36</v>
+        <v>205.94</v>
       </c>
       <c r="E16" t="n">
-        <v>13.444</v>
+        <v>17.936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>105.96</v>
+        <v>131.1</v>
       </c>
       <c r="D17" t="n">
-        <v>181.26</v>
+        <v>175.28</v>
       </c>
       <c r="E17" t="n">
-        <v>20.284</v>
+        <v>20.372</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>170.82</v>
+        <v>199.44</v>
       </c>
       <c r="D18" t="n">
-        <v>218.52</v>
+        <v>268.08</v>
       </c>
       <c r="E18" t="n">
-        <v>17.688</v>
+        <v>16.632</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>220.24</v>
+        <v>277.36</v>
       </c>
       <c r="D19" t="n">
-        <v>258.36</v>
+        <v>332.46</v>
       </c>
       <c r="E19" t="n">
-        <v>15.164</v>
+        <v>11.404</v>
       </c>
     </row>
     <row r="20">
@@ -808,207 +808,207 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>221.36</v>
+        <v>36.48</v>
       </c>
       <c r="D20" t="n">
-        <v>267.08</v>
+        <v>83.44</v>
       </c>
       <c r="E20" t="n">
-        <v>10.012</v>
+        <v>22.996</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>132.36</v>
+        <v>268.08</v>
       </c>
       <c r="D21" t="n">
-        <v>171.64</v>
+        <v>337.68</v>
       </c>
       <c r="E21" t="n">
-        <v>19.776</v>
+        <v>11.292</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>181.26</v>
+        <v>332.46</v>
       </c>
       <c r="D22" t="n">
-        <v>243.56</v>
+        <v>375.16</v>
       </c>
       <c r="E22" t="n">
-        <v>17.164</v>
+        <v>8.763999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>243.56</v>
+        <v>83.44</v>
       </c>
       <c r="D23" t="n">
-        <v>307.28</v>
+        <v>150.84</v>
       </c>
       <c r="E23" t="n">
-        <v>13.412</v>
+        <v>17.896</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>171.64</v>
+        <v>59.36</v>
       </c>
       <c r="D24" t="n">
-        <v>221.74</v>
+        <v>115.76</v>
       </c>
       <c r="E24" t="n">
-        <v>16.396</v>
+        <v>23.204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>221.74</v>
+        <v>337.68</v>
       </c>
       <c r="D25" t="n">
-        <v>276.74</v>
+        <v>402.58</v>
       </c>
       <c r="E25" t="n">
-        <v>13.016</v>
+        <v>7.912</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>258.36</v>
+        <v>115.76</v>
       </c>
       <c r="D26" t="n">
-        <v>315.76</v>
+        <v>177.82</v>
       </c>
       <c r="E26" t="n">
-        <v>10.064</v>
+        <v>18.628</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>218.52</v>
+        <v>402.58</v>
       </c>
       <c r="D27" t="n">
-        <v>253.48</v>
+        <v>465.56</v>
       </c>
       <c r="E27" t="n">
-        <v>14.832</v>
+        <v>4.744</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>253.48</v>
+        <v>150.84</v>
       </c>
       <c r="D28" t="n">
-        <v>323.58</v>
+        <v>205.52</v>
       </c>
       <c r="E28" t="n">
-        <v>11.412</v>
+        <v>14.048</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>323.58</v>
+        <v>177.82</v>
       </c>
       <c r="D29" t="n">
-        <v>419.18</v>
+        <v>233.22</v>
       </c>
       <c r="E29" t="n">
-        <v>7.932</v>
+        <v>15.208</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>54.64</v>
+        <v>205.52</v>
       </c>
       <c r="D30" t="n">
-        <v>133.82</v>
+        <v>255.32</v>
       </c>
       <c r="E30" t="n">
-        <v>21.888</v>
+        <v>10.688</v>
       </c>
     </row>
     <row r="31">
@@ -1017,150 +1017,150 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>133.82</v>
+        <v>205.94</v>
       </c>
       <c r="D31" t="n">
-        <v>190.64</v>
+        <v>247.14</v>
       </c>
       <c r="E31" t="n">
-        <v>19.296</v>
+        <v>14.456</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>267.08</v>
+        <v>233.22</v>
       </c>
       <c r="D32" t="n">
-        <v>333.2</v>
+        <v>315.08</v>
       </c>
       <c r="E32" t="n">
-        <v>5.54</v>
+        <v>12.612</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>307.28</v>
+        <v>175.28</v>
       </c>
       <c r="D33" t="n">
-        <v>355.16</v>
+        <v>255.78</v>
       </c>
       <c r="E33" t="n">
-        <v>10.244</v>
+        <v>15.952</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>276.74</v>
+        <v>315.08</v>
       </c>
       <c r="D34" t="n">
-        <v>332.06</v>
+        <v>365.04</v>
       </c>
       <c r="E34" t="n">
-        <v>10.104</v>
+        <v>9.756</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>333.2</v>
+        <v>247.14</v>
       </c>
       <c r="D35" t="n">
-        <v>374.18</v>
+        <v>306.06</v>
       </c>
       <c r="E35" t="n">
-        <v>2.572</v>
+        <v>11.684</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>190.64</v>
+        <v>365.04</v>
       </c>
       <c r="D36" t="n">
-        <v>247.4</v>
+        <v>442.56</v>
       </c>
       <c r="E36" t="n">
-        <v>15.24</v>
+        <v>6.584</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>315.76</v>
+        <v>375.16</v>
       </c>
       <c r="D37" t="n">
-        <v>378.86</v>
+        <v>460.48</v>
       </c>
       <c r="E37" t="n">
-        <v>7.824</v>
+        <v>5.332</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>355.16</v>
+        <v>255.78</v>
       </c>
       <c r="D38" t="n">
-        <v>438.76</v>
+        <v>311.68</v>
       </c>
       <c r="E38" t="n">
-        <v>6.504</v>
+        <v>12.472</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>332.06</v>
+        <v>311.68</v>
       </c>
       <c r="D39" t="n">
-        <v>394.32</v>
+        <v>376.7</v>
       </c>
       <c r="E39" t="n">
-        <v>7.508</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>419.18</v>
+        <v>376.7</v>
       </c>
       <c r="D40" t="n">
-        <v>481.82</v>
+        <v>436.38</v>
       </c>
       <c r="E40" t="n">
-        <v>5.248</v>
+        <v>5.712</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>394.32</v>
+        <v>255.32</v>
       </c>
       <c r="D41" t="n">
-        <v>436.82</v>
+        <v>296.3</v>
       </c>
       <c r="E41" t="n">
-        <v>4.388</v>
+        <v>7.72</v>
       </c>
     </row>
   </sheetData>
